--- a/CMBF_12-02-2019/BF_Error.xlsx
+++ b/CMBF_12-02-2019/BF_Error.xlsx
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>error</t>
   </si>
   <si>
-    <t>eps</t>
+    <t>falsePositiveProbability</t>
   </si>
   <si>
-    <t>falsePositiveProbability</t>
+    <t>numTimesWrong</t>
   </si>
 </sst>
 </file>
@@ -60,9 +60,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,6 +93,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>False Positive Probability vs. Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -105,29 +121,29 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Error based on width</c:v>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -135,24 +151,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7711.6283999999996</c:v>
+                  <c:v>1.0001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>407.66467</c:v>
+                  <c:v>4.0000399999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.178460000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37810319999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0971912999999997E-4</c:v>
+                  <c:v>3.3E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.8703095999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.96E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>6.202419E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -167,11 +186,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="180741632"/>
-        <c:axId val="169999104"/>
+        <c:axId val="162481152"/>
+        <c:axId val="156038784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180741632"/>
+        <c:axId val="162481152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -188,7 +207,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Width value</a:t>
+                  <a:t>False positive probability</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -200,7 +219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169999104"/>
+        <c:crossAx val="156038784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -208,11 +227,9 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169999104"/>
+        <c:axId val="156038784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -236,11 +253,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180741632"/>
+        <c:crossAx val="162481152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -287,13 +304,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Error</a:t>
+              <a:t>False Positive Probability vs. Number of times did wrong</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> changes based on eps</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -310,38 +322,29 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Error based on Eps</c:v>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$9</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -349,33 +352,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$9</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.3133295000000005E-5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42673129999999998</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.814326999999999</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>717.81020000000001</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3673.0666999999999</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9886.9670000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10213.270500000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13306.23</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,11 +387,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="180743680"/>
-        <c:axId val="200491584"/>
+        <c:axId val="125387776"/>
+        <c:axId val="37245440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180743680"/>
+        <c:axId val="125387776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +408,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>eps value</a:t>
+                  <a:t>False positive probability</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -423,7 +420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200491584"/>
+        <c:crossAx val="37245440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -431,11 +428,9 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200491584"/>
+        <c:axId val="37245440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -451,7 +446,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Total error </a:t>
+                  <a:t>Number of times did wrong</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -463,11 +458,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180743680"/>
+        <c:crossAx val="125387776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2000"/>
-        <c:minorUnit val="400"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -492,15 +485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -521,21 +514,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -842,122 +837,104 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7711.6283999999996</v>
-      </c>
-      <c r="J2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="K2" s="1">
-        <v>8.3133295000000005E-5</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.0001E-5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>407.66467</v>
-      </c>
-      <c r="J3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.42673129999999998</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.0000399999999997E-5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>51.178460000000001</v>
-      </c>
-      <c r="J4">
-        <v>2E-3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>47.814326999999999</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.3E-4</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.37810319999999997</v>
-      </c>
-      <c r="J5">
-        <v>0.02</v>
-      </c>
-      <c r="K5" s="1">
-        <v>717.81020000000001</v>
-      </c>
+        <v>3.8703095999999999E-3</v>
+      </c>
+      <c r="C5">
+        <v>387</v>
+      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0971912999999997E-4</v>
-      </c>
-      <c r="J6">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3673.0666999999999</v>
-      </c>
+        <v>3.96E-3</v>
+      </c>
+      <c r="C6">
+        <v>396</v>
+      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J7">
-        <v>0.3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9886.9670000000006</v>
-      </c>
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.202419E-2</v>
+      </c>
+      <c r="C7">
+        <v>6200</v>
+      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J8">
-        <v>0.4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>10213.270500000001</v>
-      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>13306.23</v>
-      </c>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CMBF_12-02-2019/BF_Error.xlsx
+++ b/CMBF_12-02-2019/BF_Error.xlsx
@@ -60,10 +60,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +152,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0001E-5</c:v>
@@ -164,13 +163,13 @@
                 <c:pt idx="2">
                   <c:v>3.3E-4</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="3">
                   <c:v>3.8703095999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>3.96E-3</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>6.202419E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -186,11 +185,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162481152"/>
-        <c:axId val="156038784"/>
+        <c:axId val="178644480"/>
+        <c:axId val="166853376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162481152"/>
+        <c:axId val="178644480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -219,7 +218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156038784"/>
+        <c:crossAx val="166853376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -227,7 +226,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156038784"/>
+        <c:axId val="166853376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,11 +252,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162481152"/>
+        <c:crossAx val="178644480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -387,11 +386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125387776"/>
-        <c:axId val="37245440"/>
+        <c:axId val="178646528"/>
+        <c:axId val="198394432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125387776"/>
+        <c:axId val="178646528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37245440"/>
+        <c:crossAx val="198394432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -428,7 +427,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37245440"/>
+        <c:axId val="198394432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125387776"/>
+        <c:crossAx val="178646528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -837,7 +836,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +861,7 @@
       <c r="A2">
         <v>0.01</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1.0001E-5</v>
       </c>
       <c r="C2">
@@ -874,7 +873,7 @@
       <c r="A3">
         <v>0.1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4.0000399999999997E-5</v>
       </c>
       <c r="C3">
@@ -886,7 +885,7 @@
       <c r="A4">
         <v>0.2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3.3E-4</v>
       </c>
       <c r="C4">
